--- a/reporting/Acts_11_22.xlsx
+++ b/reporting/Acts_11_22.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD3327F-9B9A-4658-A4C8-4F7FDA5A618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B477AB-7839-4466-82A5-C66A0C918B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="3270" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Контрагент</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>додаткові витрати</t>
-  </si>
-  <si>
-    <t>?????</t>
   </si>
   <si>
     <t>Клубанівсько-Зубренківське родовище №1</t>
@@ -1494,7 +1491,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7">
-        <v>4872819</v>
+        <v>5935837.5</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1502,7 +1499,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>812136.5</v>
+        <v>989306.25</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>29</v>
@@ -1528,17 +1525,15 @@
         <v>35</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>194451.53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>0</v>
+        <v>32408.588333333333</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>29</v>
@@ -1549,10 +1544,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -1561,7 +1556,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1583,10 +1578,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="5">
         <v>15</v>
@@ -1595,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="J10" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
@@ -1619,10 +1614,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="5">
         <v>21</v>
@@ -1631,16 +1626,16 @@
         <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="J11" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
@@ -1652,13 +1647,13 @@
     </row>
     <row r="12" spans="1:11" ht="20" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -1667,10 +1662,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7">
-        <v>19173540</v>
+        <v>20045202.960000001</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1678,7 +1673,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="7">
         <f>(Acts[[#This Row],[7]]-Acts[[#This Row],[8]])/6</f>
-        <v>3195590</v>
+        <v>3340867.16</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>29</v>
@@ -2063,7 +2058,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="17">
         <f>SUBTOTAL(109,Acts[7])</f>
-        <v>29769178</v>
+        <v>31898310.990000002</v>
       </c>
       <c r="H36" s="17">
         <f>SUBTOTAL(109,Acts[8])</f>
@@ -2072,7 +2067,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="17">
         <f>SUBTOTAL(109,Acts[10])</f>
-        <v>4961529.666666666</v>
+        <v>5316385.165</v>
       </c>
       <c r="K36" s="18"/>
     </row>
